--- a/data/Data.xlsx
+++ b/data/Data.xlsx
@@ -20,7 +20,10 @@
     <t>cuongnb</t>
   </si>
   <si>
-    <t>low</t>
+    <t>small</t>
+  </si>
+  <si>
+    <t>medium</t>
   </si>
   <si>
     <t>2-0;1-0</t>
@@ -29,10 +32,7 @@
     <t>ahii</t>
   </si>
   <si>
-    <t>height</t>
-  </si>
-  <si>
-    <t>miedium</t>
+    <t>large</t>
   </si>
   <si>
     <t>bhihi</t>
@@ -138,7 +138,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F15" activeCellId="0" sqref="F15"/>
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -156,24 +156,24 @@
         <v>1</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="0" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="0" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>5</v>
